--- a/A_各个子模块/插值模块/四种插补方法/To气象/样例4.xlsx
+++ b/A_各个子模块/插值模块/四种插补方法/To气象/样例4.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>邢台-邢师高专.xlsx</t>
+    <t>青岛-仰口.xlsx</t>
   </si>
 </sst>
 </file>
